--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.2679929395157775</v>
+        <v>0.2540379456918681</v>
       </c>
       <c r="D2">
-        <v>0.788737672343724</v>
+        <v>0.8018254903282214</v>
       </c>
       <c r="E2">
         <v>0.6044108795459476</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.117706458442539</v>
+        <v>1.040128729193758</v>
       </c>
       <c r="D3">
-        <v>0.2638522857638963</v>
+        <v>0.3095768363330005</v>
       </c>
       <c r="E3">
         <v>0.6044108795459476</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.1623688260805273</v>
+        <v>0.1390219754357667</v>
       </c>
       <c r="D4">
-        <v>0.8710349560373536</v>
+        <v>0.8906975569796585</v>
       </c>
       <c r="E4">
         <v>0.6044108795459476</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.107711415157789</v>
+        <v>1.9232197405741</v>
       </c>
       <c r="D5">
-        <v>0.03520385873733445</v>
+        <v>0.06749042111471493</v>
       </c>
       <c r="E5">
         <v>0.6044108795459476</v>
@@ -531,7 +528,7 @@
         <v>0.5612074862105157</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.7831468902015897</v>
+        <v>0.7785164688858091</v>
       </c>
       <c r="D6">
-        <v>0.433651306672111</v>
+        <v>0.4445579049958635</v>
       </c>
       <c r="E6">
         <v>0.5975374707192213</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.159576699011787</v>
+        <v>-0.2182268958908977</v>
       </c>
       <c r="D7">
-        <v>0.8732337288593446</v>
+        <v>0.8292638929800735</v>
       </c>
       <c r="E7">
         <v>0.5975374707192213</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.868559253579776</v>
+        <v>1.841268366022929</v>
       </c>
       <c r="D8">
-        <v>0.06185818299458257</v>
+        <v>0.07910751346193567</v>
       </c>
       <c r="E8">
         <v>0.5975374707192213</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.147045448655473</v>
+        <v>-1.206823610606248</v>
       </c>
       <c r="D9">
-        <v>0.2515262641052103</v>
+        <v>0.2403168368763708</v>
       </c>
       <c r="E9">
         <v>0.5788485064286576</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.8905037057523066</v>
+        <v>0.6715237013300431</v>
       </c>
       <c r="D10">
-        <v>0.373323061126094</v>
+        <v>0.5088775258138791</v>
       </c>
       <c r="E10">
         <v>0.5788485064286576</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.039933174310698</v>
+        <v>1.764001878372826</v>
       </c>
       <c r="D11">
-        <v>0.04151320117091384</v>
+        <v>0.09161502812602706</v>
       </c>
       <c r="E11">
         <v>0.6008683447662154</v>
@@ -687,7 +684,7 @@
         <v>0.5612074862105157</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>200</v>
